--- a/RentVsOwn.xlsx
+++ b/RentVsOwn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weej01.WORKPOINT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RentVsOwn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22553" windowHeight="11783" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22553" windowHeight="11783" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>Month</t>
   </si>
@@ -419,10 +419,13 @@
     <t>* $363,424 net home sale proceeds after seller costs</t>
   </si>
   <si>
-    <t>* Landlord has $0 net worth on $74,936 initial investment.</t>
+    <t>Vacancy Fee</t>
   </si>
   <si>
-    <t>Vacancy Fee</t>
+    <t>Landlord Monthly Report</t>
+  </si>
+  <si>
+    <t>* Landlord has $159,926 net worth on $74,936 initial investment.</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E117"/>
     </sheetView>
   </sheetViews>
@@ -3404,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection sqref="A1:M118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7876,6 +7879,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8465,285 +8469,200 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="Q121" sqref="Q121"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q14" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>289900</v>
-      </c>
-      <c r="P13" s="1">
-        <v>217425</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>-74936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2300</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2230</v>
-      </c>
-      <c r="D14" s="1">
-        <v>230</v>
-      </c>
-      <c r="E14" s="1">
-        <v>115</v>
-      </c>
-      <c r="F14" s="1">
-        <v>150</v>
-      </c>
-      <c r="G14" s="1">
-        <v>512</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>362</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>861</v>
-      </c>
-      <c r="M14" s="1">
-        <v>544</v>
-      </c>
-      <c r="N14" s="1">
-        <v>474</v>
-      </c>
-      <c r="O14" s="1">
-        <v>289900</v>
-      </c>
-      <c r="P14" s="1">
-        <v>216881</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>-474</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>2230</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
         <v>289900</v>
       </c>
       <c r="P15" s="1">
-        <v>216334</v>
+        <v>217425</v>
       </c>
       <c r="Q15" s="1">
-        <v>-477</v>
+        <v>-74936</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>2300</v>
       </c>
       <c r="C16" s="1">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D16" s="1">
         <v>230</v>
@@ -8764,39 +8683,39 @@
         <v>362</v>
       </c>
       <c r="J16" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="M16" s="1">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="N16" s="1">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="O16" s="1">
         <v>289900</v>
       </c>
       <c r="P16" s="1">
-        <v>215785</v>
+        <v>216881</v>
       </c>
       <c r="Q16" s="1">
-        <v>-480</v>
+        <v>-474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>2300</v>
       </c>
       <c r="C17" s="1">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="D17" s="1">
         <v>230</v>
@@ -8817,39 +8736,39 @@
         <v>362</v>
       </c>
       <c r="J17" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="M17" s="1">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="N17" s="1">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="O17" s="1">
         <v>289900</v>
       </c>
       <c r="P17" s="1">
-        <v>215234</v>
+        <v>216334</v>
       </c>
       <c r="Q17" s="1">
-        <v>-484</v>
+        <v>-476</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>2300</v>
       </c>
       <c r="C18" s="1">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="D18" s="1">
         <v>230</v>
@@ -8870,39 +8789,39 @@
         <v>362</v>
       </c>
       <c r="J18" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="M18" s="1">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N18" s="1">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="O18" s="1">
         <v>289900</v>
       </c>
       <c r="P18" s="1">
-        <v>214681</v>
+        <v>215785</v>
       </c>
       <c r="Q18" s="1">
-        <v>-487</v>
+        <v>-479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>2300</v>
       </c>
       <c r="C19" s="1">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="D19" s="1">
         <v>230</v>
@@ -8923,39 +8842,39 @@
         <v>362</v>
       </c>
       <c r="J19" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="M19" s="1">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N19" s="1">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="O19" s="1">
         <v>289900</v>
       </c>
       <c r="P19" s="1">
-        <v>214126</v>
+        <v>215234</v>
       </c>
       <c r="Q19" s="1">
-        <v>-490</v>
+        <v>-481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>2300</v>
       </c>
       <c r="C20" s="1">
-        <v>2236</v>
+        <v>2231</v>
       </c>
       <c r="D20" s="1">
         <v>230</v>
@@ -8976,39 +8895,39 @@
         <v>362</v>
       </c>
       <c r="J20" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="M20" s="1">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="N20" s="1">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="O20" s="1">
         <v>289900</v>
       </c>
       <c r="P20" s="1">
-        <v>213569</v>
+        <v>214681</v>
       </c>
       <c r="Q20" s="1">
-        <v>-493</v>
+        <v>-484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>2300</v>
       </c>
       <c r="C21" s="1">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="D21" s="1">
         <v>230</v>
@@ -9029,39 +8948,39 @@
         <v>362</v>
       </c>
       <c r="J21" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="M21" s="1">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="N21" s="1">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="O21" s="1">
         <v>289900</v>
       </c>
       <c r="P21" s="1">
-        <v>213009</v>
+        <v>214126</v>
       </c>
       <c r="Q21" s="1">
-        <v>-497</v>
+        <v>-486</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>2300</v>
       </c>
       <c r="C22" s="1">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="D22" s="1">
         <v>230</v>
@@ -9082,39 +9001,39 @@
         <v>362</v>
       </c>
       <c r="J22" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="M22" s="1">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="N22" s="1">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="O22" s="1">
         <v>289900</v>
       </c>
       <c r="P22" s="1">
-        <v>212447</v>
+        <v>213569</v>
       </c>
       <c r="Q22" s="1">
-        <v>-500</v>
+        <v>-488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>2300</v>
       </c>
       <c r="C23" s="1">
-        <v>2239</v>
+        <v>2231</v>
       </c>
       <c r="D23" s="1">
         <v>230</v>
@@ -9135,39 +9054,39 @@
         <v>362</v>
       </c>
       <c r="J23" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="M23" s="1">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N23" s="1">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="O23" s="1">
         <v>289900</v>
       </c>
       <c r="P23" s="1">
-        <v>211883</v>
+        <v>213009</v>
       </c>
       <c r="Q23" s="1">
-        <v>-503</v>
+        <v>-491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>2300</v>
       </c>
       <c r="C24" s="1">
-        <v>2241</v>
+        <v>2231</v>
       </c>
       <c r="D24" s="1">
         <v>230</v>
@@ -9188,39 +9107,39 @@
         <v>362</v>
       </c>
       <c r="J24" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="M24" s="1">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N24" s="1">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="O24" s="1">
         <v>289900</v>
       </c>
       <c r="P24" s="1">
-        <v>211317</v>
+        <v>212447</v>
       </c>
       <c r="Q24" s="1">
-        <v>-507</v>
+        <v>-493</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
         <v>2300</v>
       </c>
       <c r="C25" s="1">
-        <v>2241</v>
+        <v>2232</v>
       </c>
       <c r="D25" s="1">
         <v>230</v>
@@ -9241,145 +9160,145 @@
         <v>362</v>
       </c>
       <c r="J25" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="M25" s="1">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="N25" s="1">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="O25" s="1">
         <v>289900</v>
       </c>
       <c r="P25" s="1">
-        <v>210748</v>
+        <v>211883</v>
       </c>
       <c r="Q25" s="1">
-        <v>-510</v>
+        <v>-496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
-        <v>2369</v>
+        <v>2300</v>
       </c>
       <c r="C26" s="1">
-        <v>2290</v>
+        <v>2232</v>
       </c>
       <c r="D26" s="1">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E26" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="1">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="J26" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="M26" s="1">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="N26" s="1">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="O26" s="1">
-        <v>300626</v>
+        <v>289900</v>
       </c>
       <c r="P26" s="1">
-        <v>210177</v>
+        <v>211317</v>
       </c>
       <c r="Q26" s="1">
-        <v>-492</v>
+        <v>-498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
-        <v>2369</v>
+        <v>2300</v>
       </c>
       <c r="C27" s="1">
-        <v>2292</v>
+        <v>2232</v>
       </c>
       <c r="D27" s="1">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E27" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G27" s="1">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="J27" s="1">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="M27" s="1">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N27" s="1">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="O27" s="1">
-        <v>300626</v>
+        <v>289900</v>
       </c>
       <c r="P27" s="1">
-        <v>209604</v>
+        <v>210748</v>
       </c>
       <c r="Q27" s="1">
-        <v>-496</v>
+        <v>-501</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
         <v>2369</v>
       </c>
       <c r="C28" s="1">
-        <v>2293</v>
+        <v>2280</v>
       </c>
       <c r="D28" s="1">
         <v>237</v>
@@ -9400,39 +9319,39 @@
         <v>376</v>
       </c>
       <c r="J28" s="1">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="M28" s="1">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N28" s="1">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="O28" s="1">
         <v>300626</v>
       </c>
       <c r="P28" s="1">
-        <v>209029</v>
+        <v>210177</v>
       </c>
       <c r="Q28" s="1">
-        <v>-499</v>
+        <v>-482</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
         <v>2369</v>
       </c>
       <c r="C29" s="1">
-        <v>2293</v>
+        <v>2281</v>
       </c>
       <c r="D29" s="1">
         <v>237</v>
@@ -9453,39 +9372,39 @@
         <v>376</v>
       </c>
       <c r="J29" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="M29" s="1">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="N29" s="1">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="O29" s="1">
         <v>300626</v>
       </c>
       <c r="P29" s="1">
-        <v>208451</v>
+        <v>209604</v>
       </c>
       <c r="Q29" s="1">
-        <v>-502</v>
+        <v>-485</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1">
         <v>2369</v>
       </c>
       <c r="C30" s="1">
-        <v>2295</v>
+        <v>2281</v>
       </c>
       <c r="D30" s="1">
         <v>237</v>
@@ -9506,39 +9425,39 @@
         <v>376</v>
       </c>
       <c r="J30" s="1">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="M30" s="1">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="N30" s="1">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="O30" s="1">
         <v>300626</v>
       </c>
       <c r="P30" s="1">
-        <v>207871</v>
+        <v>209029</v>
       </c>
       <c r="Q30" s="1">
-        <v>-506</v>
+        <v>-487</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
         <v>2369</v>
       </c>
       <c r="C31" s="1">
-        <v>2296</v>
+        <v>2280</v>
       </c>
       <c r="D31" s="1">
         <v>237</v>
@@ -9559,39 +9478,39 @@
         <v>376</v>
       </c>
       <c r="J31" s="1">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="M31" s="1">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N31" s="1">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="O31" s="1">
         <v>300626</v>
       </c>
       <c r="P31" s="1">
-        <v>207289</v>
+        <v>208451</v>
       </c>
       <c r="Q31" s="1">
-        <v>-509</v>
+        <v>-489</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
         <v>2369</v>
       </c>
       <c r="C32" s="1">
-        <v>2297</v>
+        <v>2281</v>
       </c>
       <c r="D32" s="1">
         <v>237</v>
@@ -9612,39 +9531,39 @@
         <v>376</v>
       </c>
       <c r="J32" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="M32" s="1">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N32" s="1">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="O32" s="1">
         <v>300626</v>
       </c>
       <c r="P32" s="1">
-        <v>206705</v>
+        <v>207871</v>
       </c>
       <c r="Q32" s="1">
-        <v>-512</v>
+        <v>-492</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1">
         <v>2369</v>
       </c>
       <c r="C33" s="1">
-        <v>2298</v>
+        <v>2281</v>
       </c>
       <c r="D33" s="1">
         <v>237</v>
@@ -9665,39 +9584,39 @@
         <v>376</v>
       </c>
       <c r="J33" s="1">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="M33" s="1">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="N33" s="1">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="O33" s="1">
         <v>300626</v>
       </c>
       <c r="P33" s="1">
-        <v>206118</v>
+        <v>207289</v>
       </c>
       <c r="Q33" s="1">
-        <v>-516</v>
+        <v>-494</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1">
         <v>2369</v>
       </c>
       <c r="C34" s="1">
-        <v>2299</v>
+        <v>2282</v>
       </c>
       <c r="D34" s="1">
         <v>237</v>
@@ -9718,39 +9637,39 @@
         <v>376</v>
       </c>
       <c r="J34" s="1">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="M34" s="1">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="N34" s="1">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="O34" s="1">
         <v>300626</v>
       </c>
       <c r="P34" s="1">
-        <v>205529</v>
+        <v>206705</v>
       </c>
       <c r="Q34" s="1">
-        <v>-519</v>
+        <v>-497</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1">
         <v>2369</v>
       </c>
       <c r="C35" s="1">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="D35" s="1">
         <v>237</v>
@@ -9771,39 +9690,39 @@
         <v>376</v>
       </c>
       <c r="J35" s="1">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="M35" s="1">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N35" s="1">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="O35" s="1">
         <v>300626</v>
       </c>
       <c r="P35" s="1">
-        <v>204938</v>
+        <v>206118</v>
       </c>
       <c r="Q35" s="1">
-        <v>-523</v>
+        <v>-499</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
         <v>2369</v>
       </c>
       <c r="C36" s="1">
-        <v>2301</v>
+        <v>2282</v>
       </c>
       <c r="D36" s="1">
         <v>237</v>
@@ -9824,39 +9743,39 @@
         <v>376</v>
       </c>
       <c r="J36" s="1">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="M36" s="1">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="N36" s="1">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="O36" s="1">
         <v>300626</v>
       </c>
       <c r="P36" s="1">
-        <v>204344</v>
+        <v>205529</v>
       </c>
       <c r="Q36" s="1">
-        <v>-526</v>
+        <v>-502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1">
         <v>2369</v>
       </c>
       <c r="C37" s="1">
-        <v>2303</v>
+        <v>2282</v>
       </c>
       <c r="D37" s="1">
         <v>237</v>
@@ -9877,145 +9796,145 @@
         <v>376</v>
       </c>
       <c r="J37" s="1">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="M37" s="1">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="N37" s="1">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="O37" s="1">
         <v>300626</v>
       </c>
       <c r="P37" s="1">
-        <v>203748</v>
+        <v>204938</v>
       </c>
       <c r="Q37" s="1">
-        <v>-530</v>
+        <v>-504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1">
-        <v>2440</v>
+        <v>2369</v>
       </c>
       <c r="C38" s="1">
-        <v>2353</v>
+        <v>2282</v>
       </c>
       <c r="D38" s="1">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E38" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F38" s="1">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G38" s="1">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="J38" s="1">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="M38" s="1">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="N38" s="1">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O38" s="1">
-        <v>311749</v>
+        <v>300626</v>
       </c>
       <c r="P38" s="1">
-        <v>203150</v>
+        <v>204344</v>
       </c>
       <c r="Q38" s="1">
-        <v>-511</v>
+        <v>-507</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1">
-        <v>2440</v>
+        <v>2369</v>
       </c>
       <c r="C39" s="1">
-        <v>2354</v>
+        <v>2282</v>
       </c>
       <c r="D39" s="1">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E39" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F39" s="1">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G39" s="1">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="J39" s="1">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="M39" s="1">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="N39" s="1">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="O39" s="1">
-        <v>311749</v>
+        <v>300626</v>
       </c>
       <c r="P39" s="1">
-        <v>202549</v>
+        <v>203748</v>
       </c>
       <c r="Q39" s="1">
-        <v>-515</v>
+        <v>-509</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
         <v>2440</v>
       </c>
       <c r="C40" s="1">
-        <v>2355</v>
+        <v>2332</v>
       </c>
       <c r="D40" s="1">
         <v>244</v>
@@ -10036,39 +9955,39 @@
         <v>390</v>
       </c>
       <c r="J40" s="1">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="M40" s="1">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N40" s="1">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="O40" s="1">
         <v>311749</v>
       </c>
       <c r="P40" s="1">
-        <v>201946</v>
+        <v>203150</v>
       </c>
       <c r="Q40" s="1">
-        <v>-518</v>
+        <v>-490</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1">
         <v>2440</v>
       </c>
       <c r="C41" s="1">
-        <v>2355</v>
+        <v>2331</v>
       </c>
       <c r="D41" s="1">
         <v>244</v>
@@ -10089,39 +10008,39 @@
         <v>390</v>
       </c>
       <c r="J41" s="1">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="M41" s="1">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="N41" s="1">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="O41" s="1">
         <v>311749</v>
       </c>
       <c r="P41" s="1">
-        <v>201340</v>
+        <v>202549</v>
       </c>
       <c r="Q41" s="1">
-        <v>-521</v>
+        <v>-492</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1">
         <v>2440</v>
       </c>
       <c r="C42" s="1">
-        <v>2357</v>
+        <v>2332</v>
       </c>
       <c r="D42" s="1">
         <v>244</v>
@@ -10142,39 +10061,39 @@
         <v>390</v>
       </c>
       <c r="J42" s="1">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="M42" s="1">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="N42" s="1">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="O42" s="1">
         <v>311749</v>
       </c>
       <c r="P42" s="1">
-        <v>200732</v>
+        <v>201946</v>
       </c>
       <c r="Q42" s="1">
-        <v>-525</v>
+        <v>-495</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" s="1">
         <v>2440</v>
       </c>
       <c r="C43" s="1">
-        <v>2358</v>
+        <v>2331</v>
       </c>
       <c r="D43" s="1">
         <v>244</v>
@@ -10195,39 +10114,39 @@
         <v>390</v>
       </c>
       <c r="J43" s="1">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="M43" s="1">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N43" s="1">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="O43" s="1">
         <v>311749</v>
       </c>
       <c r="P43" s="1">
-        <v>200122</v>
+        <v>201340</v>
       </c>
       <c r="Q43" s="1">
-        <v>-528</v>
+        <v>-497</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1">
         <v>2440</v>
       </c>
       <c r="C44" s="1">
-        <v>2359</v>
+        <v>2332</v>
       </c>
       <c r="D44" s="1">
         <v>244</v>
@@ -10248,39 +10167,39 @@
         <v>390</v>
       </c>
       <c r="J44" s="1">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="M44" s="1">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="N44" s="1">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="O44" s="1">
         <v>311749</v>
       </c>
       <c r="P44" s="1">
-        <v>199509</v>
+        <v>200732</v>
       </c>
       <c r="Q44" s="1">
-        <v>-532</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1">
         <v>2440</v>
       </c>
       <c r="C45" s="1">
-        <v>2360</v>
+        <v>2332</v>
       </c>
       <c r="D45" s="1">
         <v>244</v>
@@ -10301,39 +10220,39 @@
         <v>390</v>
       </c>
       <c r="J45" s="1">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="M45" s="1">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="N45" s="1">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="O45" s="1">
         <v>311749</v>
       </c>
       <c r="P45" s="1">
-        <v>198894</v>
+        <v>200122</v>
       </c>
       <c r="Q45" s="1">
-        <v>-535</v>
+        <v>-502</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1">
         <v>2440</v>
       </c>
       <c r="C46" s="1">
-        <v>2361</v>
+        <v>2332</v>
       </c>
       <c r="D46" s="1">
         <v>244</v>
@@ -10354,39 +10273,39 @@
         <v>390</v>
       </c>
       <c r="J46" s="1">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="M46" s="1">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N46" s="1">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="O46" s="1">
         <v>311749</v>
       </c>
       <c r="P46" s="1">
-        <v>198276</v>
+        <v>199509</v>
       </c>
       <c r="Q46" s="1">
-        <v>-539</v>
+        <v>-505</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1">
         <v>2440</v>
       </c>
       <c r="C47" s="1">
-        <v>2363</v>
+        <v>2332</v>
       </c>
       <c r="D47" s="1">
         <v>244</v>
@@ -10407,39 +10326,39 @@
         <v>390</v>
       </c>
       <c r="J47" s="1">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="M47" s="1">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N47" s="1">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="O47" s="1">
         <v>311749</v>
       </c>
       <c r="P47" s="1">
-        <v>197656</v>
+        <v>198894</v>
       </c>
       <c r="Q47" s="1">
-        <v>-543</v>
+        <v>-507</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1">
         <v>2440</v>
       </c>
       <c r="C48" s="1">
-        <v>2363</v>
+        <v>2332</v>
       </c>
       <c r="D48" s="1">
         <v>244</v>
@@ -10460,39 +10379,39 @@
         <v>390</v>
       </c>
       <c r="J48" s="1">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="M48" s="1">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="N48" s="1">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="O48" s="1">
         <v>311749</v>
       </c>
       <c r="P48" s="1">
-        <v>197033</v>
+        <v>198276</v>
       </c>
       <c r="Q48" s="1">
-        <v>-546</v>
+        <v>-510</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1">
         <v>2440</v>
       </c>
       <c r="C49" s="1">
-        <v>2365</v>
+        <v>2332</v>
       </c>
       <c r="D49" s="1">
         <v>244</v>
@@ -10513,145 +10432,145 @@
         <v>390</v>
       </c>
       <c r="J49" s="1">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="M49" s="1">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N49" s="1">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="O49" s="1">
         <v>311749</v>
       </c>
       <c r="P49" s="1">
-        <v>196408</v>
+        <v>197656</v>
       </c>
       <c r="Q49" s="1">
-        <v>-550</v>
+        <v>-512</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1">
-        <v>2513</v>
+        <v>2440</v>
       </c>
       <c r="C50" s="1">
-        <v>2415</v>
+        <v>2332</v>
       </c>
       <c r="D50" s="1">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E50" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F50" s="1">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G50" s="1">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="J50" s="1">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="M50" s="1">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N50" s="1">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="O50" s="1">
-        <v>323284</v>
+        <v>311749</v>
       </c>
       <c r="P50" s="1">
-        <v>195780</v>
+        <v>197033</v>
       </c>
       <c r="Q50" s="1">
-        <v>-530</v>
+        <v>-515</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1">
-        <v>2513</v>
+        <v>2440</v>
       </c>
       <c r="C51" s="1">
-        <v>2416</v>
+        <v>2333</v>
       </c>
       <c r="D51" s="1">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E51" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F51" s="1">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G51" s="1">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="J51" s="1">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="M51" s="1">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N51" s="1">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="O51" s="1">
-        <v>323284</v>
+        <v>311749</v>
       </c>
       <c r="P51" s="1">
-        <v>195150</v>
+        <v>196408</v>
       </c>
       <c r="Q51" s="1">
-        <v>-533</v>
+        <v>-518</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B52" s="1">
         <v>2513</v>
       </c>
       <c r="C52" s="1">
-        <v>2417</v>
+        <v>2381</v>
       </c>
       <c r="D52" s="1">
         <v>251</v>
@@ -10672,39 +10591,39 @@
         <v>404</v>
       </c>
       <c r="J52" s="1">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="M52" s="1">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="N52" s="1">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="O52" s="1">
         <v>323284</v>
       </c>
       <c r="P52" s="1">
-        <v>194517</v>
+        <v>195780</v>
       </c>
       <c r="Q52" s="1">
-        <v>-537</v>
+        <v>-496</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B53" s="1">
         <v>2513</v>
       </c>
       <c r="C53" s="1">
-        <v>2418</v>
+        <v>2382</v>
       </c>
       <c r="D53" s="1">
         <v>251</v>
@@ -10725,39 +10644,39 @@
         <v>404</v>
       </c>
       <c r="J53" s="1">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="M53" s="1">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N53" s="1">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="O53" s="1">
         <v>323284</v>
       </c>
       <c r="P53" s="1">
-        <v>193882</v>
+        <v>195150</v>
       </c>
       <c r="Q53" s="1">
-        <v>-540</v>
+        <v>-499</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1">
         <v>2513</v>
       </c>
       <c r="C54" s="1">
-        <v>2419</v>
+        <v>2381</v>
       </c>
       <c r="D54" s="1">
         <v>251</v>
@@ -10778,39 +10697,39 @@
         <v>404</v>
       </c>
       <c r="J54" s="1">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="M54" s="1">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="N54" s="1">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="O54" s="1">
         <v>323284</v>
       </c>
       <c r="P54" s="1">
-        <v>193244</v>
+        <v>194517</v>
       </c>
       <c r="Q54" s="1">
-        <v>-544</v>
+        <v>-501</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B55" s="1">
         <v>2513</v>
       </c>
       <c r="C55" s="1">
-        <v>2420</v>
+        <v>2382</v>
       </c>
       <c r="D55" s="1">
         <v>251</v>
@@ -10831,39 +10750,39 @@
         <v>404</v>
       </c>
       <c r="J55" s="1">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="M55" s="1">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="N55" s="1">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="O55" s="1">
         <v>323284</v>
       </c>
       <c r="P55" s="1">
-        <v>192604</v>
+        <v>193882</v>
       </c>
       <c r="Q55" s="1">
-        <v>-547</v>
+        <v>-504</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" s="1">
         <v>2513</v>
       </c>
       <c r="C56" s="1">
-        <v>2421</v>
+        <v>2381</v>
       </c>
       <c r="D56" s="1">
         <v>251</v>
@@ -10884,39 +10803,39 @@
         <v>404</v>
       </c>
       <c r="J56" s="1">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="M56" s="1">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="N56" s="1">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="O56" s="1">
         <v>323284</v>
       </c>
       <c r="P56" s="1">
-        <v>191961</v>
+        <v>193244</v>
       </c>
       <c r="Q56" s="1">
-        <v>-551</v>
+        <v>-506</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1">
         <v>2513</v>
       </c>
       <c r="C57" s="1">
-        <v>2423</v>
+        <v>2382</v>
       </c>
       <c r="D57" s="1">
         <v>251</v>
@@ -10937,39 +10856,39 @@
         <v>404</v>
       </c>
       <c r="J57" s="1">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="M57" s="1">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="N57" s="1">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="O57" s="1">
         <v>323284</v>
       </c>
       <c r="P57" s="1">
-        <v>191316</v>
+        <v>192604</v>
       </c>
       <c r="Q57" s="1">
-        <v>-555</v>
+        <v>-509</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B58" s="1">
         <v>2513</v>
       </c>
       <c r="C58" s="1">
-        <v>2423</v>
+        <v>2381</v>
       </c>
       <c r="D58" s="1">
         <v>251</v>
@@ -10990,39 +10909,39 @@
         <v>404</v>
       </c>
       <c r="J58" s="1">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="M58" s="1">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="N58" s="1">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="O58" s="1">
         <v>323284</v>
       </c>
       <c r="P58" s="1">
-        <v>190668</v>
+        <v>191961</v>
       </c>
       <c r="Q58" s="1">
-        <v>-558</v>
+        <v>-511</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1">
         <v>2513</v>
       </c>
       <c r="C59" s="1">
-        <v>2425</v>
+        <v>2382</v>
       </c>
       <c r="D59" s="1">
         <v>251</v>
@@ -11043,39 +10962,39 @@
         <v>404</v>
       </c>
       <c r="J59" s="1">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="M59" s="1">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="N59" s="1">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="O59" s="1">
         <v>323284</v>
       </c>
       <c r="P59" s="1">
-        <v>190018</v>
+        <v>191316</v>
       </c>
       <c r="Q59" s="1">
-        <v>-562</v>
+        <v>-514</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1">
         <v>2513</v>
       </c>
       <c r="C60" s="1">
-        <v>2426</v>
+        <v>2381</v>
       </c>
       <c r="D60" s="1">
         <v>251</v>
@@ -11096,39 +11015,39 @@
         <v>404</v>
       </c>
       <c r="J60" s="1">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="M60" s="1">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="N60" s="1">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="O60" s="1">
         <v>323284</v>
       </c>
       <c r="P60" s="1">
-        <v>189365</v>
+        <v>190668</v>
       </c>
       <c r="Q60" s="1">
-        <v>-566</v>
+        <v>-516</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1">
         <v>2513</v>
       </c>
       <c r="C61" s="1">
-        <v>2428</v>
+        <v>2382</v>
       </c>
       <c r="D61" s="1">
         <v>251</v>
@@ -11149,145 +11068,145 @@
         <v>404</v>
       </c>
       <c r="J61" s="1">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="M61" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="N61" s="1">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="O61" s="1">
         <v>323284</v>
       </c>
       <c r="P61" s="1">
-        <v>188710</v>
+        <v>190018</v>
       </c>
       <c r="Q61" s="1">
-        <v>-570</v>
+        <v>-519</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1">
-        <v>2588</v>
+        <v>2513</v>
       </c>
       <c r="C62" s="1">
-        <v>2481</v>
+        <v>2381</v>
       </c>
       <c r="D62" s="1">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E62" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F62" s="1">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G62" s="1">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="J62" s="1">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="M62" s="1">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="N62" s="1">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="O62" s="1">
-        <v>335246</v>
+        <v>323284</v>
       </c>
       <c r="P62" s="1">
-        <v>188052</v>
+        <v>189365</v>
       </c>
       <c r="Q62" s="1">
-        <v>-551</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1">
-        <v>2588</v>
+        <v>2513</v>
       </c>
       <c r="C63" s="1">
-        <v>2481</v>
+        <v>2382</v>
       </c>
       <c r="D63" s="1">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E63" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F63" s="1">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G63" s="1">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="J63" s="1">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="M63" s="1">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="N63" s="1">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="O63" s="1">
-        <v>335246</v>
+        <v>323284</v>
       </c>
       <c r="P63" s="1">
-        <v>187391</v>
+        <v>188710</v>
       </c>
       <c r="Q63" s="1">
-        <v>-554</v>
+        <v>-524</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1">
         <v>2588</v>
       </c>
       <c r="C64" s="1">
-        <v>2483</v>
+        <v>2434</v>
       </c>
       <c r="D64" s="1">
         <v>259</v>
@@ -11308,39 +11227,39 @@
         <v>419</v>
       </c>
       <c r="J64" s="1">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="K64" s="1">
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="M64" s="1">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="N64" s="1">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="O64" s="1">
         <v>335246</v>
       </c>
       <c r="P64" s="1">
-        <v>186728</v>
+        <v>188052</v>
       </c>
       <c r="Q64" s="1">
-        <v>-558</v>
+        <v>-504</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1">
         <v>2588</v>
       </c>
       <c r="C65" s="1">
-        <v>2484</v>
+        <v>2433</v>
       </c>
       <c r="D65" s="1">
         <v>259</v>
@@ -11361,39 +11280,39 @@
         <v>419</v>
       </c>
       <c r="J65" s="1">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="K65" s="1">
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="M65" s="1">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="N65" s="1">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="O65" s="1">
         <v>335246</v>
       </c>
       <c r="P65" s="1">
-        <v>186062</v>
+        <v>187391</v>
       </c>
       <c r="Q65" s="1">
-        <v>-562</v>
+        <v>-506</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1">
         <v>2588</v>
       </c>
       <c r="C66" s="1">
-        <v>2484</v>
+        <v>2434</v>
       </c>
       <c r="D66" s="1">
         <v>259</v>
@@ -11414,39 +11333,39 @@
         <v>419</v>
       </c>
       <c r="J66" s="1">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K66" s="1">
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="M66" s="1">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="N66" s="1">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="O66" s="1">
         <v>335246</v>
       </c>
       <c r="P66" s="1">
-        <v>185393</v>
+        <v>186728</v>
       </c>
       <c r="Q66" s="1">
-        <v>-565</v>
+        <v>-509</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1">
         <v>2588</v>
       </c>
       <c r="C67" s="1">
-        <v>2486</v>
+        <v>2433</v>
       </c>
       <c r="D67" s="1">
         <v>259</v>
@@ -11467,39 +11386,39 @@
         <v>419</v>
       </c>
       <c r="J67" s="1">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="M67" s="1">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="N67" s="1">
-        <v>569</v>
+        <v>511</v>
       </c>
       <c r="O67" s="1">
         <v>335246</v>
       </c>
       <c r="P67" s="1">
-        <v>184722</v>
+        <v>186062</v>
       </c>
       <c r="Q67" s="1">
-        <v>-569</v>
+        <v>-511</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1">
         <v>2588</v>
       </c>
       <c r="C68" s="1">
-        <v>2487</v>
+        <v>2433</v>
       </c>
       <c r="D68" s="1">
         <v>259</v>
@@ -11520,39 +11439,39 @@
         <v>419</v>
       </c>
       <c r="J68" s="1">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="K68" s="1">
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="M68" s="1">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="N68" s="1">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="O68" s="1">
         <v>335246</v>
       </c>
       <c r="P68" s="1">
-        <v>184048</v>
+        <v>185393</v>
       </c>
       <c r="Q68" s="1">
-        <v>-573</v>
+        <v>-514</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1">
         <v>2588</v>
       </c>
       <c r="C69" s="1">
-        <v>2489</v>
+        <v>2433</v>
       </c>
       <c r="D69" s="1">
         <v>259</v>
@@ -11573,39 +11492,39 @@
         <v>419</v>
       </c>
       <c r="J69" s="1">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="K69" s="1">
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="M69" s="1">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="N69" s="1">
-        <v>577</v>
+        <v>516</v>
       </c>
       <c r="O69" s="1">
         <v>335246</v>
       </c>
       <c r="P69" s="1">
-        <v>183372</v>
+        <v>184722</v>
       </c>
       <c r="Q69" s="1">
-        <v>-577</v>
+        <v>-516</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1">
         <v>2588</v>
       </c>
       <c r="C70" s="1">
-        <v>2490</v>
+        <v>2433</v>
       </c>
       <c r="D70" s="1">
         <v>259</v>
@@ -11626,39 +11545,39 @@
         <v>419</v>
       </c>
       <c r="J70" s="1">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="K70" s="1">
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="M70" s="1">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="N70" s="1">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="O70" s="1">
         <v>335246</v>
       </c>
       <c r="P70" s="1">
-        <v>182693</v>
+        <v>184048</v>
       </c>
       <c r="Q70" s="1">
-        <v>-581</v>
+        <v>-519</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1">
         <v>2588</v>
       </c>
       <c r="C71" s="1">
-        <v>2490</v>
+        <v>2434</v>
       </c>
       <c r="D71" s="1">
         <v>259</v>
@@ -11679,39 +11598,39 @@
         <v>419</v>
       </c>
       <c r="J71" s="1">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="M71" s="1">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="N71" s="1">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="O71" s="1">
         <v>335246</v>
       </c>
       <c r="P71" s="1">
-        <v>182011</v>
+        <v>183372</v>
       </c>
       <c r="Q71" s="1">
-        <v>-584</v>
+        <v>-522</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1">
         <v>2588</v>
       </c>
       <c r="C72" s="1">
-        <v>2491</v>
+        <v>2433</v>
       </c>
       <c r="D72" s="1">
         <v>259</v>
@@ -11732,39 +11651,39 @@
         <v>419</v>
       </c>
       <c r="J72" s="1">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="M72" s="1">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="N72" s="1">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="O72" s="1">
         <v>335246</v>
       </c>
       <c r="P72" s="1">
-        <v>181326</v>
+        <v>182693</v>
       </c>
       <c r="Q72" s="1">
-        <v>-588</v>
+        <v>-524</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B73" s="1">
         <v>2588</v>
       </c>
       <c r="C73" s="1">
-        <v>2493</v>
+        <v>2433</v>
       </c>
       <c r="D73" s="1">
         <v>259</v>
@@ -11785,145 +11704,145 @@
         <v>419</v>
       </c>
       <c r="J73" s="1">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="M73" s="1">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="N73" s="1">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="O73" s="1">
         <v>335246</v>
       </c>
       <c r="P73" s="1">
-        <v>180639</v>
+        <v>182011</v>
       </c>
       <c r="Q73" s="1">
-        <v>-592</v>
+        <v>-527</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1">
-        <v>2666</v>
+        <v>2588</v>
       </c>
       <c r="C74" s="1">
-        <v>2548</v>
+        <v>2432</v>
       </c>
       <c r="D74" s="1">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E74" s="1">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F74" s="1">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G74" s="1">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="J74" s="1">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="M74" s="1">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="N74" s="1">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="O74" s="1">
-        <v>347650</v>
+        <v>335246</v>
       </c>
       <c r="P74" s="1">
-        <v>179949</v>
+        <v>181326</v>
       </c>
       <c r="Q74" s="1">
-        <v>-572</v>
+        <v>-529</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B75" s="1">
-        <v>2666</v>
+        <v>2588</v>
       </c>
       <c r="C75" s="1">
-        <v>2549</v>
+        <v>2433</v>
       </c>
       <c r="D75" s="1">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E75" s="1">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F75" s="1">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G75" s="1">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="J75" s="1">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="M75" s="1">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="N75" s="1">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="O75" s="1">
-        <v>347650</v>
+        <v>335246</v>
       </c>
       <c r="P75" s="1">
-        <v>179256</v>
+        <v>180639</v>
       </c>
       <c r="Q75" s="1">
-        <v>-576</v>
+        <v>-532</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B76" s="1">
         <v>2666</v>
       </c>
       <c r="C76" s="1">
-        <v>2551</v>
+        <v>2487</v>
       </c>
       <c r="D76" s="1">
         <v>267</v>
@@ -11944,39 +11863,39 @@
         <v>435</v>
       </c>
       <c r="J76" s="1">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="M76" s="1">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="N76" s="1">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="O76" s="1">
         <v>347650</v>
       </c>
       <c r="P76" s="1">
-        <v>178561</v>
+        <v>179949</v>
       </c>
       <c r="Q76" s="1">
-        <v>-580</v>
+        <v>-511</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1">
         <v>2666</v>
       </c>
       <c r="C77" s="1">
-        <v>2552</v>
+        <v>2486</v>
       </c>
       <c r="D77" s="1">
         <v>267</v>
@@ -11997,39 +11916,39 @@
         <v>435</v>
       </c>
       <c r="J77" s="1">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M77" s="1">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="N77" s="1">
-        <v>584</v>
+        <v>513</v>
       </c>
       <c r="O77" s="1">
         <v>347650</v>
       </c>
       <c r="P77" s="1">
-        <v>177863</v>
+        <v>179256</v>
       </c>
       <c r="Q77" s="1">
-        <v>-584</v>
+        <v>-513</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1">
         <v>2666</v>
       </c>
       <c r="C78" s="1">
-        <v>2553</v>
+        <v>2487</v>
       </c>
       <c r="D78" s="1">
         <v>267</v>
@@ -12050,39 +11969,39 @@
         <v>435</v>
       </c>
       <c r="J78" s="1">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="M78" s="1">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N78" s="1">
-        <v>588</v>
+        <v>516</v>
       </c>
       <c r="O78" s="1">
         <v>347650</v>
       </c>
       <c r="P78" s="1">
-        <v>177162</v>
+        <v>178561</v>
       </c>
       <c r="Q78" s="1">
-        <v>-588</v>
+        <v>-516</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1">
         <v>2666</v>
       </c>
       <c r="C79" s="1">
-        <v>2554</v>
+        <v>2486</v>
       </c>
       <c r="D79" s="1">
         <v>267</v>
@@ -12103,39 +12022,39 @@
         <v>435</v>
       </c>
       <c r="J79" s="1">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="K79" s="1">
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M79" s="1">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="N79" s="1">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="O79" s="1">
         <v>347650</v>
       </c>
       <c r="P79" s="1">
-        <v>176458</v>
+        <v>177863</v>
       </c>
       <c r="Q79" s="1">
-        <v>-592</v>
+        <v>-518</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B80" s="1">
         <v>2666</v>
       </c>
       <c r="C80" s="1">
-        <v>2554</v>
+        <v>2486</v>
       </c>
       <c r="D80" s="1">
         <v>267</v>
@@ -12156,39 +12075,39 @@
         <v>435</v>
       </c>
       <c r="J80" s="1">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="K80" s="1">
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="M80" s="1">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="N80" s="1">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="O80" s="1">
         <v>347650</v>
       </c>
       <c r="P80" s="1">
-        <v>175751</v>
+        <v>177162</v>
       </c>
       <c r="Q80" s="1">
-        <v>-595</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" s="1">
         <v>2666</v>
       </c>
       <c r="C81" s="1">
-        <v>2556</v>
+        <v>2486</v>
       </c>
       <c r="D81" s="1">
         <v>267</v>
@@ -12209,39 +12128,39 @@
         <v>435</v>
       </c>
       <c r="J81" s="1">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="K81" s="1">
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="M81" s="1">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="N81" s="1">
-        <v>599</v>
+        <v>524</v>
       </c>
       <c r="O81" s="1">
         <v>347650</v>
       </c>
       <c r="P81" s="1">
-        <v>175042</v>
+        <v>176458</v>
       </c>
       <c r="Q81" s="1">
-        <v>-599</v>
+        <v>-524</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1">
         <v>2666</v>
       </c>
       <c r="C82" s="1">
-        <v>2557</v>
+        <v>2485</v>
       </c>
       <c r="D82" s="1">
         <v>267</v>
@@ -12262,39 +12181,39 @@
         <v>435</v>
       </c>
       <c r="J82" s="1">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="K82" s="1">
         <v>0</v>
       </c>
       <c r="L82" s="1">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="M82" s="1">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="N82" s="1">
-        <v>603</v>
+        <v>526</v>
       </c>
       <c r="O82" s="1">
         <v>347650</v>
       </c>
       <c r="P82" s="1">
-        <v>174330</v>
+        <v>175751</v>
       </c>
       <c r="Q82" s="1">
-        <v>-603</v>
+        <v>-526</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B83" s="1">
         <v>2666</v>
       </c>
       <c r="C83" s="1">
-        <v>2558</v>
+        <v>2486</v>
       </c>
       <c r="D83" s="1">
         <v>267</v>
@@ -12315,39 +12234,39 @@
         <v>435</v>
       </c>
       <c r="J83" s="1">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="K83" s="1">
         <v>0</v>
       </c>
       <c r="L83" s="1">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="M83" s="1">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="N83" s="1">
-        <v>607</v>
+        <v>529</v>
       </c>
       <c r="O83" s="1">
         <v>347650</v>
       </c>
       <c r="P83" s="1">
-        <v>173615</v>
+        <v>175042</v>
       </c>
       <c r="Q83" s="1">
-        <v>-607</v>
+        <v>-529</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B84" s="1">
         <v>2666</v>
       </c>
       <c r="C84" s="1">
-        <v>2559</v>
+        <v>2486</v>
       </c>
       <c r="D84" s="1">
         <v>267</v>
@@ -12368,39 +12287,39 @@
         <v>435</v>
       </c>
       <c r="J84" s="1">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="K84" s="1">
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="M84" s="1">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="N84" s="1">
-        <v>611</v>
+        <v>532</v>
       </c>
       <c r="O84" s="1">
         <v>347650</v>
       </c>
       <c r="P84" s="1">
-        <v>172897</v>
+        <v>174330</v>
       </c>
       <c r="Q84" s="1">
-        <v>-611</v>
+        <v>-532</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B85" s="1">
         <v>2666</v>
       </c>
       <c r="C85" s="1">
-        <v>2561</v>
+        <v>2485</v>
       </c>
       <c r="D85" s="1">
         <v>267</v>
@@ -12421,145 +12340,145 @@
         <v>435</v>
       </c>
       <c r="J85" s="1">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="K85" s="1">
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="M85" s="1">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N85" s="1">
-        <v>616</v>
+        <v>534</v>
       </c>
       <c r="O85" s="1">
         <v>347650</v>
       </c>
       <c r="P85" s="1">
-        <v>172176</v>
+        <v>173615</v>
       </c>
       <c r="Q85" s="1">
-        <v>-616</v>
+        <v>-534</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B86" s="1">
-        <v>2746</v>
+        <v>2666</v>
       </c>
       <c r="C86" s="1">
-        <v>2619</v>
+        <v>2485</v>
       </c>
       <c r="D86" s="1">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E86" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F86" s="1">
+        <v>172</v>
+      </c>
+      <c r="G86" s="1">
+        <v>614</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>435</v>
+      </c>
+      <c r="J86" s="1">
         <v>177</v>
       </c>
-      <c r="G86" s="1">
-        <v>637</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
-        <v>451</v>
-      </c>
-      <c r="J86" s="1">
-        <v>260</v>
-      </c>
       <c r="K86" s="1">
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="M86" s="1">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N86" s="1">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="O86" s="1">
-        <v>360513</v>
+        <v>347650</v>
       </c>
       <c r="P86" s="1">
-        <v>171453</v>
+        <v>172897</v>
       </c>
       <c r="Q86" s="1">
-        <v>-596</v>
+        <v>-537</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B87" s="1">
-        <v>2746</v>
+        <v>2666</v>
       </c>
       <c r="C87" s="1">
-        <v>2620</v>
+        <v>2485</v>
       </c>
       <c r="D87" s="1">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E87" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F87" s="1">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G87" s="1">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="J87" s="1">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="K87" s="1">
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="M87" s="1">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N87" s="1">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="O87" s="1">
-        <v>360513</v>
+        <v>347650</v>
       </c>
       <c r="P87" s="1">
-        <v>170727</v>
+        <v>172176</v>
       </c>
       <c r="Q87" s="1">
-        <v>-600</v>
+        <v>-540</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" s="1">
         <v>2746</v>
       </c>
       <c r="C88" s="1">
-        <v>2621</v>
+        <v>2541</v>
       </c>
       <c r="D88" s="1">
         <v>275</v>
@@ -12580,39 +12499,39 @@
         <v>451</v>
       </c>
       <c r="J88" s="1">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="M88" s="1">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="N88" s="1">
-        <v>604</v>
+        <v>518</v>
       </c>
       <c r="O88" s="1">
         <v>360513</v>
       </c>
       <c r="P88" s="1">
-        <v>169998</v>
+        <v>171453</v>
       </c>
       <c r="Q88" s="1">
-        <v>-604</v>
+        <v>-518</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" s="1">
         <v>2746</v>
       </c>
       <c r="C89" s="1">
-        <v>2622</v>
+        <v>2541</v>
       </c>
       <c r="D89" s="1">
         <v>275</v>
@@ -12633,39 +12552,39 @@
         <v>451</v>
       </c>
       <c r="J89" s="1">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="K89" s="1">
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="M89" s="1">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N89" s="1">
-        <v>608</v>
+        <v>521</v>
       </c>
       <c r="O89" s="1">
         <v>360513</v>
       </c>
       <c r="P89" s="1">
-        <v>169266</v>
+        <v>170727</v>
       </c>
       <c r="Q89" s="1">
-        <v>-608</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B90" s="1">
         <v>2746</v>
       </c>
       <c r="C90" s="1">
-        <v>2623</v>
+        <v>2540</v>
       </c>
       <c r="D90" s="1">
         <v>275</v>
@@ -12686,39 +12605,39 @@
         <v>451</v>
       </c>
       <c r="J90" s="1">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="1">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="M90" s="1">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="N90" s="1">
-        <v>612</v>
+        <v>523</v>
       </c>
       <c r="O90" s="1">
         <v>360513</v>
       </c>
       <c r="P90" s="1">
-        <v>168531</v>
+        <v>169998</v>
       </c>
       <c r="Q90" s="1">
-        <v>-612</v>
+        <v>-523</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1">
         <v>2746</v>
       </c>
       <c r="C91" s="1">
-        <v>2624</v>
+        <v>2540</v>
       </c>
       <c r="D91" s="1">
         <v>275</v>
@@ -12739,39 +12658,39 @@
         <v>451</v>
       </c>
       <c r="J91" s="1">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="K91" s="1">
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="M91" s="1">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="N91" s="1">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="O91" s="1">
         <v>360513</v>
       </c>
       <c r="P91" s="1">
-        <v>167793</v>
+        <v>169266</v>
       </c>
       <c r="Q91" s="1">
-        <v>-616</v>
+        <v>-526</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B92" s="1">
         <v>2746</v>
       </c>
       <c r="C92" s="1">
-        <v>2625</v>
+        <v>2540</v>
       </c>
       <c r="D92" s="1">
         <v>275</v>
@@ -12792,39 +12711,39 @@
         <v>451</v>
       </c>
       <c r="J92" s="1">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="1">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="M92" s="1">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="N92" s="1">
-        <v>620</v>
+        <v>529</v>
       </c>
       <c r="O92" s="1">
         <v>360513</v>
       </c>
       <c r="P92" s="1">
-        <v>167052</v>
+        <v>168531</v>
       </c>
       <c r="Q92" s="1">
-        <v>-620</v>
+        <v>-529</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1">
         <v>2746</v>
       </c>
       <c r="C93" s="1">
-        <v>2626</v>
+        <v>2539</v>
       </c>
       <c r="D93" s="1">
         <v>275</v>
@@ -12845,39 +12764,39 @@
         <v>451</v>
       </c>
       <c r="J93" s="1">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="K93" s="1">
         <v>0</v>
       </c>
       <c r="L93" s="1">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="M93" s="1">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="N93" s="1">
-        <v>624</v>
+        <v>531</v>
       </c>
       <c r="O93" s="1">
         <v>360513</v>
       </c>
       <c r="P93" s="1">
-        <v>166308</v>
+        <v>167793</v>
       </c>
       <c r="Q93" s="1">
-        <v>-624</v>
+        <v>-531</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1">
         <v>2746</v>
       </c>
       <c r="C94" s="1">
-        <v>2627</v>
+        <v>2539</v>
       </c>
       <c r="D94" s="1">
         <v>275</v>
@@ -12898,39 +12817,39 @@
         <v>451</v>
       </c>
       <c r="J94" s="1">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="1">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="M94" s="1">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="N94" s="1">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="O94" s="1">
         <v>360513</v>
       </c>
       <c r="P94" s="1">
-        <v>165561</v>
+        <v>167052</v>
       </c>
       <c r="Q94" s="1">
-        <v>-628</v>
+        <v>-534</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1">
         <v>2746</v>
       </c>
       <c r="C95" s="1">
-        <v>2628</v>
+        <v>2539</v>
       </c>
       <c r="D95" s="1">
         <v>275</v>
@@ -12951,39 +12870,39 @@
         <v>451</v>
       </c>
       <c r="J95" s="1">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="K95" s="1">
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="M95" s="1">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="N95" s="1">
-        <v>632</v>
+        <v>537</v>
       </c>
       <c r="O95" s="1">
         <v>360513</v>
       </c>
       <c r="P95" s="1">
-        <v>164811</v>
+        <v>166308</v>
       </c>
       <c r="Q95" s="1">
-        <v>-632</v>
+        <v>-537</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B96" s="1">
         <v>2746</v>
       </c>
       <c r="C96" s="1">
-        <v>2630</v>
+        <v>2538</v>
       </c>
       <c r="D96" s="1">
         <v>275</v>
@@ -13004,39 +12923,39 @@
         <v>451</v>
       </c>
       <c r="J96" s="1">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="1">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="M96" s="1">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="N96" s="1">
-        <v>637</v>
+        <v>539</v>
       </c>
       <c r="O96" s="1">
         <v>360513</v>
       </c>
       <c r="P96" s="1">
-        <v>164058</v>
+        <v>165561</v>
       </c>
       <c r="Q96" s="1">
-        <v>-637</v>
+        <v>-539</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B97" s="1">
         <v>2746</v>
       </c>
       <c r="C97" s="1">
-        <v>2631</v>
+        <v>2538</v>
       </c>
       <c r="D97" s="1">
         <v>275</v>
@@ -13057,145 +12976,145 @@
         <v>451</v>
       </c>
       <c r="J97" s="1">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="K97" s="1">
         <v>0</v>
       </c>
       <c r="L97" s="1">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="M97" s="1">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N97" s="1">
-        <v>641</v>
+        <v>542</v>
       </c>
       <c r="O97" s="1">
         <v>360513</v>
       </c>
       <c r="P97" s="1">
-        <v>163302</v>
+        <v>164811</v>
       </c>
       <c r="Q97" s="1">
-        <v>-641</v>
+        <v>-542</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1">
-        <v>2828</v>
+        <v>2746</v>
       </c>
       <c r="C98" s="1">
-        <v>2688</v>
+        <v>2538</v>
       </c>
       <c r="D98" s="1">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E98" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F98" s="1">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G98" s="1">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
       </c>
       <c r="I98" s="1">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="J98" s="1">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="K98" s="1">
         <v>0</v>
       </c>
       <c r="L98" s="1">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="M98" s="1">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="N98" s="1">
-        <v>619</v>
+        <v>545</v>
       </c>
       <c r="O98" s="1">
-        <v>373852</v>
+        <v>360513</v>
       </c>
       <c r="P98" s="1">
-        <v>162543</v>
+        <v>164058</v>
       </c>
       <c r="Q98" s="1">
-        <v>-619</v>
+        <v>-545</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1">
-        <v>2828</v>
+        <v>2746</v>
       </c>
       <c r="C99" s="1">
-        <v>2689</v>
+        <v>2538</v>
       </c>
       <c r="D99" s="1">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E99" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F99" s="1">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G99" s="1">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
       </c>
       <c r="I99" s="1">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="J99" s="1">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="K99" s="1">
         <v>0</v>
       </c>
       <c r="L99" s="1">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="M99" s="1">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="N99" s="1">
-        <v>623</v>
+        <v>548</v>
       </c>
       <c r="O99" s="1">
-        <v>373852</v>
+        <v>360513</v>
       </c>
       <c r="P99" s="1">
-        <v>161781</v>
+        <v>163302</v>
       </c>
       <c r="Q99" s="1">
-        <v>-623</v>
+        <v>-548</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B100" s="1">
         <v>2828</v>
       </c>
       <c r="C100" s="1">
-        <v>2690</v>
+        <v>2593</v>
       </c>
       <c r="D100" s="1">
         <v>283</v>
@@ -13216,39 +13135,39 @@
         <v>467</v>
       </c>
       <c r="J100" s="1">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="K100" s="1">
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="M100" s="1">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="N100" s="1">
-        <v>627</v>
+        <v>524</v>
       </c>
       <c r="O100" s="1">
         <v>373852</v>
       </c>
       <c r="P100" s="1">
-        <v>161016</v>
+        <v>162543</v>
       </c>
       <c r="Q100" s="1">
-        <v>-627</v>
+        <v>-524</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1">
         <v>2828</v>
       </c>
       <c r="C101" s="1">
-        <v>2692</v>
+        <v>2593</v>
       </c>
       <c r="D101" s="1">
         <v>283</v>
@@ -13269,39 +13188,39 @@
         <v>467</v>
       </c>
       <c r="J101" s="1">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="K101" s="1">
         <v>0</v>
       </c>
       <c r="L101" s="1">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="M101" s="1">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="N101" s="1">
-        <v>632</v>
+        <v>527</v>
       </c>
       <c r="O101" s="1">
         <v>373852</v>
       </c>
       <c r="P101" s="1">
-        <v>160248</v>
+        <v>161781</v>
       </c>
       <c r="Q101" s="1">
-        <v>-632</v>
+        <v>-527</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B102" s="1">
         <v>2828</v>
       </c>
       <c r="C102" s="1">
-        <v>2693</v>
+        <v>2593</v>
       </c>
       <c r="D102" s="1">
         <v>283</v>
@@ -13322,39 +13241,39 @@
         <v>467</v>
       </c>
       <c r="J102" s="1">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="K102" s="1">
         <v>0</v>
       </c>
       <c r="L102" s="1">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="M102" s="1">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="N102" s="1">
-        <v>636</v>
+        <v>530</v>
       </c>
       <c r="O102" s="1">
         <v>373852</v>
       </c>
       <c r="P102" s="1">
-        <v>159477</v>
+        <v>161016</v>
       </c>
       <c r="Q102" s="1">
-        <v>-636</v>
+        <v>-530</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1">
         <v>2828</v>
       </c>
       <c r="C103" s="1">
-        <v>2694</v>
+        <v>2592</v>
       </c>
       <c r="D103" s="1">
         <v>283</v>
@@ -13375,39 +13294,39 @@
         <v>467</v>
       </c>
       <c r="J103" s="1">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="K103" s="1">
         <v>0</v>
       </c>
       <c r="L103" s="1">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="M103" s="1">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="N103" s="1">
-        <v>640</v>
+        <v>532</v>
       </c>
       <c r="O103" s="1">
         <v>373852</v>
       </c>
       <c r="P103" s="1">
-        <v>158703</v>
+        <v>160248</v>
       </c>
       <c r="Q103" s="1">
-        <v>-640</v>
+        <v>-532</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B104" s="1">
         <v>2828</v>
       </c>
       <c r="C104" s="1">
-        <v>2695</v>
+        <v>2592</v>
       </c>
       <c r="D104" s="1">
         <v>283</v>
@@ -13428,39 +13347,39 @@
         <v>467</v>
       </c>
       <c r="J104" s="1">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="K104" s="1">
         <v>0</v>
       </c>
       <c r="L104" s="1">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M104" s="1">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="N104" s="1">
-        <v>644</v>
+        <v>535</v>
       </c>
       <c r="O104" s="1">
         <v>373852</v>
       </c>
       <c r="P104" s="1">
-        <v>157926</v>
+        <v>159477</v>
       </c>
       <c r="Q104" s="1">
-        <v>-644</v>
+        <v>-535</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1">
         <v>2828</v>
       </c>
       <c r="C105" s="1">
-        <v>2697</v>
+        <v>2591</v>
       </c>
       <c r="D105" s="1">
         <v>283</v>
@@ -13481,39 +13400,39 @@
         <v>467</v>
       </c>
       <c r="J105" s="1">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="K105" s="1">
         <v>0</v>
       </c>
       <c r="L105" s="1">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="M105" s="1">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N105" s="1">
-        <v>649</v>
+        <v>537</v>
       </c>
       <c r="O105" s="1">
         <v>373852</v>
       </c>
       <c r="P105" s="1">
-        <v>157146</v>
+        <v>158703</v>
       </c>
       <c r="Q105" s="1">
-        <v>-649</v>
+        <v>-537</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1">
         <v>2828</v>
       </c>
       <c r="C106" s="1">
-        <v>2698</v>
+        <v>2591</v>
       </c>
       <c r="D106" s="1">
         <v>283</v>
@@ -13534,39 +13453,39 @@
         <v>467</v>
       </c>
       <c r="J106" s="1">
-        <v>343</v>
+        <v>230</v>
       </c>
       <c r="K106" s="1">
         <v>0</v>
       </c>
       <c r="L106" s="1">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="M106" s="1">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="N106" s="1">
-        <v>653</v>
+        <v>540</v>
       </c>
       <c r="O106" s="1">
         <v>373852</v>
       </c>
       <c r="P106" s="1">
-        <v>156363</v>
+        <v>157926</v>
       </c>
       <c r="Q106" s="1">
-        <v>-653</v>
+        <v>-540</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1">
         <v>2828</v>
       </c>
       <c r="C107" s="1">
-        <v>2699</v>
+        <v>2591</v>
       </c>
       <c r="D107" s="1">
         <v>283</v>
@@ -13587,39 +13506,39 @@
         <v>467</v>
       </c>
       <c r="J107" s="1">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="K107" s="1">
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="M107" s="1">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="N107" s="1">
-        <v>657</v>
+        <v>543</v>
       </c>
       <c r="O107" s="1">
         <v>373852</v>
       </c>
       <c r="P107" s="1">
-        <v>155577</v>
+        <v>157146</v>
       </c>
       <c r="Q107" s="1">
-        <v>-657</v>
+        <v>-543</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B108" s="1">
         <v>2828</v>
       </c>
       <c r="C108" s="1">
-        <v>2701</v>
+        <v>2591</v>
       </c>
       <c r="D108" s="1">
         <v>283</v>
@@ -13640,39 +13559,39 @@
         <v>467</v>
       </c>
       <c r="J108" s="1">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K108" s="1">
         <v>0</v>
       </c>
       <c r="L108" s="1">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="M108" s="1">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="N108" s="1">
-        <v>662</v>
+        <v>546</v>
       </c>
       <c r="O108" s="1">
         <v>373852</v>
       </c>
       <c r="P108" s="1">
-        <v>154788</v>
+        <v>156363</v>
       </c>
       <c r="Q108" s="1">
-        <v>-662</v>
+        <v>-546</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B109" s="1">
         <v>2828</v>
       </c>
       <c r="C109" s="1">
-        <v>2702</v>
+        <v>2590</v>
       </c>
       <c r="D109" s="1">
         <v>283</v>
@@ -13693,145 +13612,145 @@
         <v>467</v>
       </c>
       <c r="J109" s="1">
-        <v>356</v>
+        <v>238</v>
       </c>
       <c r="K109" s="1">
         <v>0</v>
       </c>
       <c r="L109" s="1">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="M109" s="1">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="N109" s="1">
-        <v>666</v>
+        <v>548</v>
       </c>
       <c r="O109" s="1">
         <v>373852</v>
       </c>
       <c r="P109" s="1">
-        <v>153996</v>
+        <v>155577</v>
       </c>
       <c r="Q109" s="1">
-        <v>-666</v>
+        <v>-548</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B110" s="1">
-        <v>2913</v>
+        <v>2828</v>
       </c>
       <c r="C110" s="1">
-        <v>2765</v>
+        <v>2590</v>
       </c>
       <c r="D110" s="1">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E110" s="1">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F110" s="1">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G110" s="1">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
       </c>
       <c r="I110" s="1">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="J110" s="1">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="K110" s="1">
         <v>0</v>
       </c>
       <c r="L110" s="1">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M110" s="1">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="N110" s="1">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="O110" s="1">
-        <v>387685</v>
+        <v>373852</v>
       </c>
       <c r="P110" s="1">
-        <v>153201</v>
+        <v>154788</v>
       </c>
       <c r="Q110" s="1">
-        <v>-647</v>
+        <v>-551</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B111" s="1">
-        <v>2913</v>
+        <v>2828</v>
       </c>
       <c r="C111" s="1">
-        <v>2765</v>
+        <v>2590</v>
       </c>
       <c r="D111" s="1">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E111" s="1">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F111" s="1">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G111" s="1">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="H111" s="1">
         <v>0</v>
       </c>
       <c r="I111" s="1">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="J111" s="1">
-        <v>365</v>
+        <v>244</v>
       </c>
       <c r="K111" s="1">
         <v>0</v>
       </c>
       <c r="L111" s="1">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="M111" s="1">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="N111" s="1">
-        <v>651</v>
+        <v>554</v>
       </c>
       <c r="O111" s="1">
-        <v>387685</v>
+        <v>373852</v>
       </c>
       <c r="P111" s="1">
-        <v>152402</v>
+        <v>153996</v>
       </c>
       <c r="Q111" s="1">
-        <v>-651</v>
+        <v>-554</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B112" s="1">
         <v>2913</v>
       </c>
       <c r="C112" s="1">
-        <v>2766</v>
+        <v>2651</v>
       </c>
       <c r="D112" s="1">
         <v>291</v>
@@ -13852,39 +13771,39 @@
         <v>485</v>
       </c>
       <c r="J112" s="1">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="K112" s="1">
         <v>0</v>
       </c>
       <c r="L112" s="1">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="M112" s="1">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="N112" s="1">
-        <v>655</v>
+        <v>533</v>
       </c>
       <c r="O112" s="1">
         <v>387685</v>
       </c>
       <c r="P112" s="1">
-        <v>151600</v>
+        <v>153201</v>
       </c>
       <c r="Q112" s="1">
-        <v>-655</v>
+        <v>-533</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B113" s="1">
         <v>2913</v>
       </c>
       <c r="C113" s="1">
-        <v>2768</v>
+        <v>2649</v>
       </c>
       <c r="D113" s="1">
         <v>291</v>
@@ -13905,39 +13824,39 @@
         <v>485</v>
       </c>
       <c r="J113" s="1">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="K113" s="1">
         <v>0</v>
       </c>
       <c r="L113" s="1">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M113" s="1">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="N113" s="1">
-        <v>660</v>
+        <v>535</v>
       </c>
       <c r="O113" s="1">
         <v>387685</v>
       </c>
       <c r="P113" s="1">
-        <v>150795</v>
+        <v>152402</v>
       </c>
       <c r="Q113" s="1">
-        <v>-660</v>
+        <v>-535</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1">
         <v>2913</v>
       </c>
       <c r="C114" s="1">
-        <v>2769</v>
+        <v>2649</v>
       </c>
       <c r="D114" s="1">
         <v>291</v>
@@ -13958,39 +13877,39 @@
         <v>485</v>
       </c>
       <c r="J114" s="1">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="K114" s="1">
         <v>0</v>
       </c>
       <c r="L114" s="1">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="M114" s="1">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="N114" s="1">
-        <v>664</v>
+        <v>538</v>
       </c>
       <c r="O114" s="1">
         <v>387685</v>
       </c>
       <c r="P114" s="1">
-        <v>149987</v>
+        <v>151600</v>
       </c>
       <c r="Q114" s="1">
-        <v>-664</v>
+        <v>-538</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B115" s="1">
         <v>2913</v>
       </c>
       <c r="C115" s="1">
-        <v>2770</v>
+        <v>2649</v>
       </c>
       <c r="D115" s="1">
         <v>291</v>
@@ -14011,39 +13930,39 @@
         <v>485</v>
       </c>
       <c r="J115" s="1">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="K115" s="1">
         <v>0</v>
       </c>
       <c r="L115" s="1">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M115" s="1">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="N115" s="1">
-        <v>668</v>
+        <v>541</v>
       </c>
       <c r="O115" s="1">
         <v>387685</v>
       </c>
       <c r="P115" s="1">
-        <v>149176</v>
+        <v>150795</v>
       </c>
       <c r="Q115" s="1">
-        <v>-668</v>
+        <v>-541</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1">
         <v>2913</v>
       </c>
       <c r="C116" s="1">
-        <v>2771</v>
+        <v>2648</v>
       </c>
       <c r="D116" s="1">
         <v>291</v>
@@ -14064,39 +13983,39 @@
         <v>485</v>
       </c>
       <c r="J116" s="1">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="K116" s="1">
         <v>0</v>
       </c>
       <c r="L116" s="1">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="M116" s="1">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="N116" s="1">
-        <v>673</v>
+        <v>543</v>
       </c>
       <c r="O116" s="1">
         <v>387685</v>
       </c>
       <c r="P116" s="1">
-        <v>148361</v>
+        <v>149987</v>
       </c>
       <c r="Q116" s="1">
-        <v>-673</v>
+        <v>-543</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B117" s="1">
         <v>2913</v>
       </c>
       <c r="C117" s="1">
-        <v>2772</v>
+        <v>2648</v>
       </c>
       <c r="D117" s="1">
         <v>291</v>
@@ -14117,126 +14036,234 @@
         <v>485</v>
       </c>
       <c r="J117" s="1">
-        <v>391</v>
+        <v>260</v>
       </c>
       <c r="K117" s="1">
         <v>0</v>
       </c>
       <c r="L117" s="1">
+        <v>594</v>
+      </c>
+      <c r="M117" s="1">
+        <v>811</v>
+      </c>
+      <c r="N117" s="1">
+        <v>546</v>
+      </c>
+      <c r="O117" s="1">
+        <v>387685</v>
+      </c>
+      <c r="P117" s="1">
+        <v>149176</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>-546</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>103</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2913</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2647</v>
+      </c>
+      <c r="D118" s="1">
+        <v>291</v>
+      </c>
+      <c r="E118" s="1">
+        <v>146</v>
+      </c>
+      <c r="F118" s="1">
+        <v>187</v>
+      </c>
+      <c r="G118" s="1">
+        <v>685</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>485</v>
+      </c>
+      <c r="J118" s="1">
+        <v>263</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>590</v>
+      </c>
+      <c r="M118" s="1">
+        <v>815</v>
+      </c>
+      <c r="N118" s="1">
+        <v>549</v>
+      </c>
+      <c r="O118" s="1">
+        <v>387685</v>
+      </c>
+      <c r="P118" s="1">
+        <v>148361</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>-549</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>104</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2913</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2647</v>
+      </c>
+      <c r="D119" s="1">
+        <v>291</v>
+      </c>
+      <c r="E119" s="1">
+        <v>146</v>
+      </c>
+      <c r="F119" s="1">
+        <v>187</v>
+      </c>
+      <c r="G119" s="1">
+        <v>685</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>485</v>
+      </c>
+      <c r="J119" s="1">
+        <v>266</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
         <v>587</v>
       </c>
-      <c r="M117" s="1">
+      <c r="M119" s="1">
         <v>818</v>
       </c>
-      <c r="N117" s="1">
-        <v>677</v>
-      </c>
-      <c r="O117" s="1">
-        <v>0</v>
-      </c>
-      <c r="P117" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>153530</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="1">
-        <v>268704</v>
-      </c>
-      <c r="C118" s="1">
-        <v>258195</v>
-      </c>
-      <c r="D118" s="1">
-        <v>26870</v>
-      </c>
-      <c r="E118" s="1">
-        <v>13435</v>
-      </c>
-      <c r="F118" s="1">
-        <v>17390</v>
-      </c>
-      <c r="G118" s="1">
-        <v>61496</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0</v>
-      </c>
-      <c r="I118" s="1">
-        <v>43528</v>
-      </c>
-      <c r="J118" s="1">
-        <v>19238</v>
-      </c>
-      <c r="K118" s="1">
-        <v>0</v>
-      </c>
-      <c r="L118" s="1">
-        <v>76238</v>
-      </c>
-      <c r="M118" s="1">
-        <v>69882</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="1">
-        <v>2584</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2483</v>
-      </c>
-      <c r="D119" s="1">
-        <v>258</v>
-      </c>
-      <c r="E119" s="1">
-        <v>129</v>
-      </c>
-      <c r="F119" s="1">
-        <v>167</v>
-      </c>
-      <c r="G119" s="1">
-        <v>591</v>
-      </c>
-      <c r="H119" s="1">
-        <v>0</v>
-      </c>
-      <c r="I119" s="1">
-        <v>419</v>
-      </c>
-      <c r="J119" s="1">
-        <v>185</v>
-      </c>
-      <c r="K119" s="1">
-        <v>0</v>
-      </c>
-      <c r="L119" s="1">
-        <v>733</v>
-      </c>
-      <c r="M119" s="1">
-        <v>672</v>
+      <c r="N119" s="1">
+        <v>552</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+      <c r="P119" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>213029</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q120" s="1">
-        <v>-38185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B120" s="1">
+        <v>268704</v>
+      </c>
+      <c r="C120" s="1">
+        <v>252477</v>
+      </c>
+      <c r="D120" s="1">
+        <v>26870</v>
+      </c>
+      <c r="E120" s="1">
+        <v>13435</v>
+      </c>
+      <c r="F120" s="1">
+        <v>17390</v>
+      </c>
+      <c r="G120" s="1">
+        <v>61496</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>43528</v>
+      </c>
+      <c r="J120" s="1">
+        <v>13520</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>76238</v>
+      </c>
+      <c r="M120" s="1">
+        <v>69882</v>
+      </c>
+      <c r="Q120" s="1"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2584</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2428</v>
+      </c>
+      <c r="D121" s="1">
+        <v>258</v>
+      </c>
+      <c r="E121" s="1">
+        <v>129</v>
+      </c>
+      <c r="F121" s="1">
+        <v>167</v>
+      </c>
+      <c r="G121" s="1">
+        <v>591</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>419</v>
+      </c>
+      <c r="J121" s="1">
+        <v>130</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>733</v>
+      </c>
+      <c r="M121" s="1">
+        <v>672</v>
+      </c>
+      <c r="Q121" s="2"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>-4073</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
         <v>19</v>
       </c>
-      <c r="Q121" s="2">
-        <v>2.0799999999999999E-2</v>
+      <c r="Q123" s="2">
+        <v>7.46E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14248,8 +14275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14301,7 +14328,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
@@ -14318,7 +14345,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -14418,7 +14445,7 @@
         <v>27600</v>
       </c>
       <c r="C14" s="1">
-        <v>26825</v>
+        <v>26770</v>
       </c>
       <c r="D14" s="1">
         <v>2760</v>
@@ -14439,7 +14466,7 @@
         <v>4344</v>
       </c>
       <c r="J14" s="1">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -14451,7 +14478,7 @@
         <v>6677</v>
       </c>
       <c r="N14" s="1">
-        <v>5902</v>
+        <v>5847</v>
       </c>
       <c r="O14" s="1">
         <v>289900</v>
@@ -14460,7 +14487,7 @@
         <v>210748</v>
       </c>
       <c r="Q14" s="1">
-        <v>-5902</v>
+        <v>-5847</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -14471,7 +14498,7 @@
         <v>28428</v>
       </c>
       <c r="C15" s="1">
-        <v>27553</v>
+        <v>27370</v>
       </c>
       <c r="D15" s="1">
         <v>2843</v>
@@ -14492,7 +14519,7 @@
         <v>4512</v>
       </c>
       <c r="J15" s="1">
-        <v>694</v>
+        <v>511</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -14504,7 +14531,7 @@
         <v>7000</v>
       </c>
       <c r="N15" s="1">
-        <v>6125</v>
+        <v>5942</v>
       </c>
       <c r="O15" s="1">
         <v>300626</v>
@@ -14513,7 +14540,7 @@
         <v>203748</v>
       </c>
       <c r="Q15" s="1">
-        <v>-6125</v>
+        <v>-5942</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
@@ -14524,7 +14551,7 @@
         <v>29280</v>
       </c>
       <c r="C16" s="1">
-        <v>28297</v>
+        <v>27977</v>
       </c>
       <c r="D16" s="1">
         <v>2928</v>
@@ -14545,7 +14572,7 @@
         <v>4680</v>
       </c>
       <c r="J16" s="1">
-        <v>1191</v>
+        <v>871</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -14557,7 +14584,7 @@
         <v>7340</v>
       </c>
       <c r="N16" s="1">
-        <v>6357</v>
+        <v>6037</v>
       </c>
       <c r="O16" s="1">
         <v>311749</v>
@@ -14566,7 +14593,7 @@
         <v>196408</v>
       </c>
       <c r="Q16" s="1">
-        <v>-6357</v>
+        <v>-6037</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
@@ -14577,7 +14604,7 @@
         <v>30156</v>
       </c>
       <c r="C17" s="1">
-        <v>29050</v>
+        <v>28577</v>
       </c>
       <c r="D17" s="1">
         <v>3016</v>
@@ -14598,7 +14625,7 @@
         <v>4848</v>
       </c>
       <c r="J17" s="1">
-        <v>1709</v>
+        <v>1236</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -14610,7 +14637,7 @@
         <v>7698</v>
       </c>
       <c r="N17" s="1">
-        <v>6592</v>
+        <v>6119</v>
       </c>
       <c r="O17" s="1">
         <v>323284</v>
@@ -14619,7 +14646,7 @@
         <v>188710</v>
       </c>
       <c r="Q17" s="1">
-        <v>-6592</v>
+        <v>-6119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
@@ -14630,7 +14657,7 @@
         <v>31056</v>
       </c>
       <c r="C18" s="1">
-        <v>29836</v>
+        <v>29195</v>
       </c>
       <c r="D18" s="1">
         <v>3106</v>
@@ -14651,7 +14678,7 @@
         <v>5028</v>
       </c>
       <c r="J18" s="1">
-        <v>2246</v>
+        <v>1605</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -14663,7 +14690,7 @@
         <v>8071</v>
       </c>
       <c r="N18" s="1">
-        <v>6851</v>
+        <v>6210</v>
       </c>
       <c r="O18" s="1">
         <v>335246</v>
@@ -14672,7 +14699,7 @@
         <v>180639</v>
       </c>
       <c r="Q18" s="1">
-        <v>-6851</v>
+        <v>-6210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
@@ -14683,7 +14710,7 @@
         <v>31992</v>
       </c>
       <c r="C19" s="1">
-        <v>30653</v>
+        <v>29831</v>
       </c>
       <c r="D19" s="1">
         <v>3199</v>
@@ -14704,7 +14731,7 @@
         <v>5220</v>
       </c>
       <c r="J19" s="1">
-        <v>2803</v>
+        <v>1981</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -14716,7 +14743,7 @@
         <v>8463</v>
       </c>
       <c r="N19" s="1">
-        <v>7124</v>
+        <v>6302</v>
       </c>
       <c r="O19" s="1">
         <v>347650</v>
@@ -14725,7 +14752,7 @@
         <v>172176</v>
       </c>
       <c r="Q19" s="1">
-        <v>-7124</v>
+        <v>-6302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
@@ -14736,7 +14763,7 @@
         <v>32952</v>
       </c>
       <c r="C20" s="1">
-        <v>31495</v>
+        <v>30470</v>
       </c>
       <c r="D20" s="1">
         <v>3295</v>
@@ -14757,7 +14784,7 @@
         <v>5412</v>
       </c>
       <c r="J20" s="1">
-        <v>3386</v>
+        <v>2361</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -14769,7 +14796,7 @@
         <v>8874</v>
       </c>
       <c r="N20" s="1">
-        <v>7417</v>
+        <v>6392</v>
       </c>
       <c r="O20" s="1">
         <v>360513</v>
@@ -14778,7 +14805,7 @@
         <v>163302</v>
       </c>
       <c r="Q20" s="1">
-        <v>-7417</v>
+        <v>-6392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
@@ -14789,7 +14816,7 @@
         <v>33936</v>
       </c>
       <c r="C21" s="1">
-        <v>32340</v>
+        <v>31099</v>
       </c>
       <c r="D21" s="1">
         <v>3394</v>
@@ -14810,7 +14837,7 @@
         <v>5604</v>
       </c>
       <c r="J21" s="1">
-        <v>3988</v>
+        <v>2747</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -14822,7 +14849,7 @@
         <v>9306</v>
       </c>
       <c r="N21" s="1">
-        <v>7710</v>
+        <v>6469</v>
       </c>
       <c r="O21" s="1">
         <v>373852</v>
@@ -14831,7 +14858,7 @@
         <v>153996</v>
       </c>
       <c r="Q21" s="1">
-        <v>-7710</v>
+        <v>-6469</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
@@ -14842,7 +14869,7 @@
         <v>23304</v>
       </c>
       <c r="C22" s="1">
-        <v>22146</v>
+        <v>21188</v>
       </c>
       <c r="D22" s="1">
         <v>2330</v>
@@ -14863,7 +14890,7 @@
         <v>3880</v>
       </c>
       <c r="J22" s="1">
-        <v>3007</v>
+        <v>2049</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -14875,7 +14902,7 @@
         <v>6453</v>
       </c>
       <c r="N22" s="1">
-        <v>5295</v>
+        <v>4337</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
@@ -14884,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>148912</v>
+        <v>209244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
@@ -14895,7 +14922,7 @@
         <v>268704</v>
       </c>
       <c r="C23" s="1">
-        <v>258195</v>
+        <v>252477</v>
       </c>
       <c r="D23" s="1">
         <v>26870</v>
@@ -14916,7 +14943,7 @@
         <v>43528</v>
       </c>
       <c r="J23" s="1">
-        <v>19238</v>
+        <v>13520</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -14936,7 +14963,7 @@
         <v>29856</v>
       </c>
       <c r="C24" s="1">
-        <v>28688</v>
+        <v>28053</v>
       </c>
       <c r="D24" s="1">
         <v>2986</v>
@@ -14957,7 +14984,7 @@
         <v>4836</v>
       </c>
       <c r="J24" s="1">
-        <v>2138</v>
+        <v>1502</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -14974,7 +15001,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="1">
-        <v>-38696</v>
+        <v>-5483</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
@@ -14982,7 +15009,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
     </row>
   </sheetData>
